--- a/Results/RNN_Autoencoder_ClinicalData/Average_Metrics_Per_Lambda.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,13 +34,10 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>34.09%</t>
+    <t>45.45%</t>
   </si>
   <si>
     <t>22.73%</t>
-  </si>
-  <si>
-    <t>11.36%</t>
   </si>
 </sst>
 </file>
@@ -441,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -521,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -541,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -561,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -581,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -601,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Results/RNN_Autoencoder_ClinicalData/Average_Metrics_Per_Lambda.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Average_Metrics_Per_Lambda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
   <si>
     <t>Lambda</t>
   </si>
@@ -34,10 +34,13 @@
     <t>Average Specificity</t>
   </si>
   <si>
-    <t>45.45%</t>
+    <t>50.00%</t>
   </si>
   <si>
     <t>22.73%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -518,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -578,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -598,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
